--- a/Test Data/Bill.xlsx
+++ b/Test Data/Bill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>biller</t>
   </si>
@@ -39,16 +39,25 @@
     <t>SalikPIN</t>
   </si>
   <si>
-    <t>011000186020</t>
-  </si>
-  <si>
     <t>FEWA</t>
   </si>
   <si>
     <t>partial</t>
   </si>
   <si>
-    <t>011000186018</t>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>du Postpaid</t>
+  </si>
+  <si>
+    <t>ADDC</t>
+  </si>
+  <si>
+    <t>011074763011</t>
+  </si>
+  <si>
+    <t>011074763023</t>
   </si>
 </sst>
 </file>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,10 +447,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>210000137777</v>
@@ -450,30 +459,44 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>210000137777</v>
+        <v>599588538</v>
       </c>
       <c r="D3" s="6">
         <v>100</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8235355929</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Bill.xlsx
+++ b/Test Data/Bill.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Registration" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="NewBillPayment" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>biller</t>
   </si>
@@ -58,6 +58,57 @@
   </si>
   <si>
     <t>011074763023</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>rowNum</t>
+  </si>
+  <si>
+    <t>ExcelPath</t>
+  </si>
+  <si>
+    <t>/Test Data/Bill.xlsx</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>NewBillPayment</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>CardPin</t>
+  </si>
+  <si>
+    <t>mPIN</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>VerifyAccountNumber</t>
+  </si>
+  <si>
+    <t>VerifyFinanceAccountNumber</t>
+  </si>
+  <si>
+    <t>VerifyDepositAccountNumber</t>
+  </si>
+  <si>
+    <t>LD2303978741</t>
+  </si>
+  <si>
+    <t>MM2301428463</t>
   </si>
 </sst>
 </file>
@@ -67,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +126,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,12 +161,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -112,6 +173,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,125 +478,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
-        <v>210000137777</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>599588538</v>
-      </c>
-      <c r="D3" s="6">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8235355929</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5244550100131680</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2">
+        <v>102030</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2">
+        <v>11074763023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>210000137777</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>599588538</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8235355929</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Bill.xlsx
+++ b/Test Data/Bill.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
     <sheet name="Login" sheetId="3" r:id="rId2"/>
     <sheet name="NewBillPayment" sheetId="1" r:id="rId3"/>
-    <sheet name="ProfileSettings" sheetId="4" r:id="rId4"/>
+    <sheet name="ProfileSettings_MobileNumber" sheetId="4" r:id="rId4"/>
+    <sheet name="ProfileSettings_EmailAddress" sheetId="5" r:id="rId5"/>
+    <sheet name="MyOwn" sheetId="6" r:id="rId6"/>
+    <sheet name="TransferWithInAjman" sheetId="7" r:id="rId7"/>
+    <sheet name="TransferWithInUAE" sheetId="8" r:id="rId8"/>
+    <sheet name="TransferToInternational" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>biller</t>
   </si>
@@ -55,12 +60,6 @@
     <t>ADDC</t>
   </si>
   <si>
-    <t>011074763011</t>
-  </si>
-  <si>
-    <t>011074763023</t>
-  </si>
-  <si>
     <t>ExpectedResult</t>
   </si>
   <si>
@@ -94,9 +93,6 @@
     <t>mPIN</t>
   </si>
   <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
     <t>VerifyAccountNumber</t>
   </si>
   <si>
@@ -106,22 +102,188 @@
     <t>VerifyDepositAccountNumber</t>
   </si>
   <si>
-    <t>LD2303978741</t>
-  </si>
-  <si>
-    <t>MM2301428463</t>
-  </si>
-  <si>
     <t>MobileNumber</t>
   </si>
   <si>
+    <t>Mobile Number Updated Successfully</t>
+  </si>
+  <si>
+    <t>RowNum</t>
+  </si>
+  <si>
     <t>EmailAddress</t>
   </si>
   <si>
     <t>abdullah@testing.com</t>
   </si>
   <si>
-    <t>5244550100131688</t>
+    <t>Email Address Updated Successfully</t>
+  </si>
+  <si>
+    <t>011000366022</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>5290161250133434</t>
+  </si>
+  <si>
+    <t>011000366010</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+(13.66 USD)
+Paid To
+FEWA
+FEWA
+210000137777
+Reference ID
+22101947019269</t>
+  </si>
+  <si>
+    <t>50.00
+AED
+Paid To
+DU
+du Postpaid
+599588538
+Reference ID
+2210936522269</t>
+  </si>
+  <si>
+    <t>200.51
+AED
+Paid To
+ADDC
+ADDC
+8235355929
+Reference ID
+2210244000439</t>
+  </si>
+  <si>
+    <t>Email Address Not Updated. Please Try Again</t>
+  </si>
+  <si>
+    <t>TransferToAccount</t>
+  </si>
+  <si>
+    <t>TransferFromAccount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>IBANNumber</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>011074784027</t>
+  </si>
+  <si>
+    <t>AE400211000000220294021</t>
+  </si>
+  <si>
+    <t>SelectAccount</t>
+  </si>
+  <si>
+    <t>Contry</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>AccountHolderName</t>
+  </si>
+  <si>
+    <t>RoutingNumber</t>
+  </si>
+  <si>
+    <t>IFSCCode</t>
+  </si>
+  <si>
+    <t>BankAddress</t>
+  </si>
+  <si>
+    <t>ChargesOption</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>HDFC BANK LIMITED</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SBIN00CARDS</t>
+  </si>
+  <si>
+    <t>New Roadway Masoodabad</t>
+  </si>
+  <si>
+    <t>Shared by both</t>
+  </si>
+  <si>
+    <t>Educational Support</t>
+  </si>
+  <si>
+    <t>United States Of America</t>
+  </si>
+  <si>
+    <t>CHASE INVESTMENT COUNSEL CORPORATION</t>
+  </si>
+  <si>
+    <t>Terence</t>
+  </si>
+  <si>
+    <t>061092387</t>
+  </si>
+  <si>
+    <t>ATLANTA GA30318 USA</t>
+  </si>
+  <si>
+    <t>I will pay the charges</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>COUTTS AND COMPANY</t>
+  </si>
+  <si>
+    <t>GB57COUT1800020533051</t>
+  </si>
+  <si>
+    <t>ICF</t>
+  </si>
+  <si>
+    <t>St. Martin Office 440 Strand</t>
+  </si>
+  <si>
+    <t>Beneficiary will pay the charges</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>NATIXIS FACTOR</t>
+  </si>
+  <si>
+    <t>FR7630007999992738468400131</t>
+  </si>
+  <si>
+    <t>AKS Natixis Bk</t>
+  </si>
+  <si>
+    <t>Bank Code 30007, Guichet 99999</t>
   </si>
 </sst>
 </file>
@@ -131,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +308,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,14 +333,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,10 +359,13 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,34 +661,34 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -556,29 +710,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -586,13 +740,7 @@
         <v>102030</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -605,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,13 +769,13 @@
     <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="18.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="35.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1" ht="15.75">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -651,16 +799,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -677,22 +825,25 @@
         <v>210000137777</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -709,22 +860,25 @@
         <v>599588538</v>
       </c>
       <c r="E3" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="5">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -741,13 +895,16 @@
         <v>8235355929</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -758,32 +915,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>503644497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>503644497</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>33</v>
+      <c r="D2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -792,4 +1013,392 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6">
+        <v>372073000000786</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="16">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>903013089</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>